--- a/Iter1-analysisPairs.xlsx
+++ b/Iter1-analysisPairs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE94F9C9-87CB-4EDF-BBF4-48DDD339301B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1FD8D-036C-47C4-96B3-DC8C01B4E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3376" uniqueCount="1796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1806">
   <si>
     <t>UID</t>
   </si>
@@ -5429,6 +5429,36 @@
   </si>
   <si>
     <t>Correct issue = 'CASSANDRA-13701' ; Correct email = 'https://lists.apache.org/thread/qc57rzvpmkcyf593s9c81z9zo634bk5j'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue discusses replacement whilst email explains current </t>
+  </si>
+  <si>
+    <t>Email is succesor ADD to issue ADD</t>
+  </si>
+  <si>
+    <t>project rhino/tokenAuth</t>
+  </si>
+  <si>
+    <t>Email is questioning if ADD exists</t>
+  </si>
+  <si>
+    <t>Email is actually related to HDFS-5324, but that has a word count of 49 instead of 50+</t>
+  </si>
+  <si>
+    <t>Could be related, but is another ADD that is related to issue ADD</t>
+  </si>
+  <si>
+    <t>Email refers issue, but not related</t>
+  </si>
+  <si>
+    <t>Email is a generic question</t>
+  </si>
+  <si>
+    <t>Email is unanswered question</t>
+  </si>
+  <si>
+    <t>Could be another ADD that is related to issue ADD</t>
   </si>
 </sst>
 </file>
@@ -5451,7 +5481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5494,6 +5524,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5507,7 +5543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -5516,6 +5552,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5803,8 +5840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S101" sqref="S101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9631,10 +9668,10 @@
       <c r="Q105" t="s">
         <v>32</v>
       </c>
-      <c r="S105" s="6"/>
-      <c r="T105" s="5" t="s">
+      <c r="S105" s="5" t="s">
         <v>717</v>
       </c>
+      <c r="T105" s="6"/>
       <c r="U105" t="s">
         <v>1767</v>
       </c>
@@ -11655,7 +11692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>300819</v>
       </c>
@@ -11687,7 +11724,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>400439</v>
       </c>
@@ -11719,7 +11756,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>352396</v>
       </c>
@@ -11751,7 +11788,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>326268</v>
       </c>
@@ -11783,7 +11820,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>396189</v>
       </c>
@@ -11815,7 +11852,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>356030</v>
       </c>
@@ -11847,7 +11884,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>378916</v>
       </c>
@@ -11879,7 +11916,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>414607</v>
       </c>
@@ -11910,8 +11947,15 @@
       <c r="Q168" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S168" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T168" s="6"/>
+      <c r="U168" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>305122</v>
       </c>
@@ -11943,7 +11987,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>290900</v>
       </c>
@@ -11975,7 +12019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>370312</v>
       </c>
@@ -12007,7 +12051,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>394601</v>
       </c>
@@ -12039,7 +12083,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>333653</v>
       </c>
@@ -12070,8 +12114,14 @@
       <c r="Q173" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S173" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="U173" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>365077</v>
       </c>
@@ -12103,7 +12153,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>291398</v>
       </c>
@@ -12135,7 +12185,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>306977</v>
       </c>
@@ -12166,8 +12216,11 @@
       <c r="Q176" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S176" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>289394</v>
       </c>
@@ -12199,7 +12252,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>382327</v>
       </c>
@@ -12231,7 +12284,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>356381</v>
       </c>
@@ -12262,8 +12315,11 @@
       <c r="Q179" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S179" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>346766</v>
       </c>
@@ -12295,7 +12351,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>320994</v>
       </c>
@@ -12327,7 +12383,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>338513</v>
       </c>
@@ -12359,7 +12415,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>356040</v>
       </c>
@@ -12391,7 +12447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>386428</v>
       </c>
@@ -12423,7 +12479,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>398068</v>
       </c>
@@ -12455,7 +12511,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>310369</v>
       </c>
@@ -12486,8 +12542,15 @@
       <c r="Q186" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S186" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T186" s="6"/>
+      <c r="U186" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>380788</v>
       </c>
@@ -12519,7 +12582,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>364267</v>
       </c>
@@ -12551,7 +12614,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>346341</v>
       </c>
@@ -12583,7 +12646,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>303332</v>
       </c>
@@ -12615,7 +12678,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>341329</v>
       </c>
@@ -12647,7 +12710,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>291392</v>
       </c>
@@ -14215,7 +14278,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>364142</v>
       </c>
@@ -14247,7 +14310,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>356088</v>
       </c>
@@ -14279,7 +14342,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>396515</v>
       </c>
@@ -14311,7 +14374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>328582</v>
       </c>
@@ -14343,7 +14406,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>396516</v>
       </c>
@@ -14374,8 +14437,14 @@
       <c r="Q245" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S245" s="4">
+        <v>7</v>
+      </c>
+      <c r="T245" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>286412</v>
       </c>
@@ -14407,7 +14476,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>357342</v>
       </c>
@@ -14439,7 +14508,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>291830</v>
       </c>
@@ -14471,7 +14540,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>366887</v>
       </c>
@@ -14502,8 +14571,11 @@
       <c r="Q249" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S249" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>327721</v>
       </c>
@@ -14534,8 +14606,11 @@
       <c r="Q250" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S250" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>292390</v>
       </c>
@@ -14567,7 +14642,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>316227</v>
       </c>
@@ -14599,7 +14674,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>413622</v>
       </c>
@@ -14631,7 +14706,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>358257</v>
       </c>
@@ -14663,7 +14738,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>373401</v>
       </c>
@@ -14695,7 +14770,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>318249</v>
       </c>
@@ -14727,7 +14802,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>335556</v>
       </c>
@@ -14759,7 +14834,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>364979</v>
       </c>
@@ -14791,7 +14866,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>360838</v>
       </c>
@@ -14823,7 +14898,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>300834</v>
       </c>
@@ -14855,7 +14930,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>415979</v>
       </c>
@@ -14887,7 +14962,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>315237</v>
       </c>
@@ -14919,7 +14994,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>332182</v>
       </c>
@@ -14951,7 +15026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>303375</v>
       </c>
@@ -14983,7 +15058,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>409623</v>
       </c>
@@ -15014,8 +15089,11 @@
       <c r="Q265" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S265" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>315202</v>
       </c>
@@ -15047,7 +15125,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>357054</v>
       </c>
@@ -15079,7 +15157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>344101</v>
       </c>
@@ -15111,7 +15189,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>412185</v>
       </c>
@@ -15143,7 +15221,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>354069</v>
       </c>
@@ -15174,8 +15252,15 @@
       <c r="Q270" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S270" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T270" s="6"/>
+      <c r="U270" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>286382</v>
       </c>
@@ -15207,7 +15292,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>354108</v>
       </c>
@@ -15239,7 +15324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>373629</v>
       </c>
@@ -15271,7 +15356,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>357721</v>
       </c>
@@ -15303,7 +15388,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>328701</v>
       </c>
@@ -15334,8 +15419,11 @@
       <c r="Q275" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S275" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>343281</v>
       </c>
@@ -15367,7 +15455,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>376222</v>
       </c>
@@ -15399,7 +15487,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>343507</v>
       </c>
@@ -15431,7 +15519,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>300826</v>
       </c>
@@ -15463,7 +15551,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>321071</v>
       </c>
@@ -15495,7 +15583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>354891</v>
       </c>
@@ -15527,7 +15615,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>291363</v>
       </c>
@@ -15559,7 +15647,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>332750</v>
       </c>
@@ -15590,8 +15678,14 @@
       <c r="Q283" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S283" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="U283" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>409606</v>
       </c>
@@ -15623,7 +15717,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>402940</v>
       </c>
@@ -15655,7 +15749,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>291434</v>
       </c>
@@ -15687,7 +15781,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>373640</v>
       </c>
@@ -15719,7 +15813,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>337000</v>
       </c>
@@ -15750,8 +15844,11 @@
       <c r="Q288" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S288" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>390068</v>
       </c>
@@ -15783,7 +15880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>357218</v>
       </c>
@@ -15815,7 +15912,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>361789</v>
       </c>
@@ -15847,7 +15944,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>417381</v>
       </c>
@@ -15879,7 +15976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>334567</v>
       </c>
@@ -15911,7 +16008,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293004</v>
       </c>
@@ -15943,7 +16040,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>309564</v>
       </c>
@@ -15975,7 +16072,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>394777</v>
       </c>
@@ -16007,7 +16104,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>336993</v>
       </c>
@@ -16038,8 +16135,11 @@
       <c r="Q297" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S297" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>356056</v>
       </c>
@@ -16071,7 +16171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>372639</v>
       </c>
@@ -16103,7 +16203,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>357632</v>
       </c>
@@ -16135,7 +16235,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>312214</v>
       </c>
@@ -16167,7 +16267,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>413121</v>
       </c>
@@ -16199,7 +16299,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>354095</v>
       </c>
@@ -16231,7 +16331,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>402502</v>
       </c>
@@ -16263,7 +16363,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>335172</v>
       </c>
@@ -16295,7 +16395,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>291448</v>
       </c>
@@ -16326,8 +16426,15 @@
       <c r="Q306" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S306" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T306" s="8"/>
+      <c r="U306" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>396486</v>
       </c>
@@ -16359,7 +16466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>412269</v>
       </c>
@@ -16391,7 +16498,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>302538</v>
       </c>
@@ -16423,7 +16530,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>325476</v>
       </c>
@@ -16455,7 +16562,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>413270</v>
       </c>
@@ -16486,8 +16593,15 @@
       <c r="Q311" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S311" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T311" s="6"/>
+      <c r="U311" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>287362</v>
       </c>
@@ -16519,7 +16633,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>415274</v>
       </c>
@@ -16550,8 +16664,11 @@
       <c r="Q313" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S313" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>392013</v>
       </c>
@@ -16583,7 +16700,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>409023</v>
       </c>
@@ -16615,7 +16732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>367427</v>
       </c>
@@ -16647,7 +16764,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>366320</v>
       </c>
@@ -16679,7 +16796,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>384720</v>
       </c>
@@ -16711,7 +16828,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>287131</v>
       </c>
@@ -16743,7 +16860,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>401562</v>
       </c>
@@ -16775,7 +16892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>362281</v>
       </c>
@@ -16807,7 +16924,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>403675</v>
       </c>
@@ -16839,7 +16956,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>396110</v>
       </c>
@@ -16871,7 +16988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>351387</v>
       </c>
@@ -16903,7 +17020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>408547</v>
       </c>
@@ -16935,7 +17052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>398510</v>
       </c>
@@ -16967,7 +17084,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>408992</v>
       </c>
@@ -16998,8 +17115,11 @@
       <c r="Q327" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S327" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>364515</v>
       </c>
@@ -17031,7 +17151,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>322814</v>
       </c>
@@ -17063,7 +17183,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>378885</v>
       </c>
@@ -17095,7 +17215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>325434</v>
       </c>
@@ -17127,7 +17247,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>333140</v>
       </c>
@@ -17159,7 +17279,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>304716</v>
       </c>
@@ -17191,7 +17311,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>416058</v>
       </c>
@@ -17223,7 +17343,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>362288</v>
       </c>
@@ -17255,7 +17375,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>416000</v>
       </c>
@@ -17285,6 +17405,12 @@
       </c>
       <c r="Q336" t="s">
         <v>788</v>
+      </c>
+      <c r="S336" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="U336" t="s">
+        <v>1803</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
@@ -18311,7 +18437,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>341654</v>
       </c>
@@ -18342,8 +18468,11 @@
       <c r="Q369" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S369" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>318589</v>
       </c>
@@ -18375,7 +18504,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>349207</v>
       </c>
@@ -18407,7 +18536,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>380836</v>
       </c>
@@ -18439,7 +18568,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>296289</v>
       </c>
@@ -18470,8 +18599,11 @@
       <c r="Q373" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S373" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="374" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>294730</v>
       </c>
@@ -18503,7 +18635,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>364832</v>
       </c>
@@ -18535,7 +18667,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>337806</v>
       </c>
@@ -18567,7 +18699,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>299780</v>
       </c>
@@ -18598,8 +18730,11 @@
       <c r="Q377" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S377" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>339617</v>
       </c>
@@ -18631,7 +18766,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>364971</v>
       </c>
@@ -18663,7 +18798,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>287130</v>
       </c>
@@ -18695,7 +18830,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>346349</v>
       </c>
@@ -18727,7 +18862,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>366519</v>
       </c>
@@ -18759,7 +18894,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>330742</v>
       </c>
@@ -18791,7 +18926,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>333789</v>
       </c>
@@ -20359,7 +20494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>375853</v>
       </c>
@@ -20391,7 +20526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>396269</v>
       </c>
@@ -20422,8 +20557,11 @@
       <c r="Q434" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S434" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>416078</v>
       </c>
@@ -20455,7 +20593,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>408960</v>
       </c>
@@ -20487,7 +20625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>338241</v>
       </c>
@@ -20518,8 +20656,11 @@
       <c r="Q437" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S437" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>286361</v>
       </c>
@@ -20551,7 +20692,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>355113</v>
       </c>
@@ -20583,7 +20724,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>375560</v>
       </c>
@@ -20615,7 +20756,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>296479</v>
       </c>
@@ -20647,7 +20788,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>364087</v>
       </c>
@@ -20679,7 +20820,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>341678</v>
       </c>
@@ -20711,7 +20852,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>290930</v>
       </c>
@@ -20743,7 +20884,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>358256</v>
       </c>
@@ -20774,8 +20915,11 @@
       <c r="Q445" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S445" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>402944</v>
       </c>
@@ -20807,7 +20951,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>345968</v>
       </c>
@@ -20839,7 +20983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>366468</v>
       </c>
@@ -22577,8 +22721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:U501"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R411" sqref="R411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23161,7 +23305,7 @@
         <v>32600</v>
       </c>
       <c r="Q16" t="s">
-        <v>388</v>
+        <v>893</v>
       </c>
       <c r="S16" s="1">
         <v>3</v>
@@ -29491,7 +29635,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>56781</v>
       </c>
@@ -29523,7 +29667,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>59304</v>
       </c>
@@ -29555,7 +29699,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>62119</v>
       </c>
@@ -29587,7 +29731,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>65115</v>
       </c>
@@ -29619,7 +29763,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>71091</v>
       </c>
@@ -29651,7 +29795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>70720</v>
       </c>
@@ -29683,7 +29827,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>69501</v>
       </c>
@@ -29715,7 +29859,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>70877</v>
       </c>
@@ -29747,7 +29891,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>68035</v>
       </c>
@@ -29779,7 +29923,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>57727</v>
       </c>
@@ -29811,7 +29955,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>55766</v>
       </c>
@@ -29843,7 +29987,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>61872</v>
       </c>
@@ -29875,7 +30019,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>61636</v>
       </c>
@@ -29906,8 +30050,14 @@
       <c r="Q205" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S205" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="U205" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>58295</v>
       </c>
@@ -29939,7 +30089,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>69387</v>
       </c>
@@ -29971,7 +30121,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>54846</v>
       </c>
@@ -33587,7 +33737,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>61239</v>
       </c>
@@ -33619,7 +33769,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>64171</v>
       </c>
@@ -33651,7 +33801,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>57636</v>
       </c>
@@ -33683,7 +33833,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>64434</v>
       </c>
@@ -33715,7 +33865,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>55378</v>
       </c>
@@ -33747,7 +33897,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>56442</v>
       </c>
@@ -33779,7 +33929,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>55236</v>
       </c>
@@ -33811,7 +33961,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>59268</v>
       </c>
@@ -33842,8 +33992,11 @@
       <c r="Q328" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S328" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>55462</v>
       </c>
@@ -33875,7 +34028,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>67803</v>
       </c>
@@ -33907,7 +34060,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>60034</v>
       </c>
@@ -33939,7 +34092,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>59456</v>
       </c>
@@ -33971,7 +34124,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>63992</v>
       </c>
@@ -34003,7 +34156,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>68981</v>
       </c>
@@ -34035,7 +34188,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>61393</v>
       </c>
@@ -34067,7 +34220,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>68551</v>
       </c>
@@ -35635,7 +35788,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>72214</v>
       </c>
@@ -35667,7 +35820,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>70527</v>
       </c>
@@ -35699,7 +35852,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>55541</v>
       </c>
@@ -35731,7 +35884,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>67326</v>
       </c>
@@ -35763,7 +35916,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>62976</v>
       </c>
@@ -35795,7 +35948,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>64067</v>
       </c>
@@ -35827,7 +35980,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>61241</v>
       </c>
@@ -35859,7 +36012,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>60059</v>
       </c>
@@ -35891,7 +36044,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>64830</v>
       </c>
@@ -35923,7 +36076,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>63131</v>
       </c>
@@ -35955,7 +36108,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>56806</v>
       </c>
@@ -35987,7 +36140,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>57916</v>
       </c>
@@ -36019,7 +36172,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>68973</v>
       </c>
@@ -36051,7 +36204,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>70736</v>
       </c>
@@ -36082,8 +36235,11 @@
       <c r="Q398" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S398" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>60934</v>
       </c>
@@ -36115,7 +36271,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>54894</v>
       </c>
@@ -36147,7 +36303,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>66258</v>
       </c>
@@ -36179,7 +36335,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>69977</v>
       </c>
@@ -36211,7 +36367,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>69568</v>
       </c>
@@ -36243,7 +36399,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>64739</v>
       </c>
@@ -36275,7 +36431,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>62904</v>
       </c>
@@ -36307,7 +36463,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>60986</v>
       </c>
@@ -36339,7 +36495,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>60411</v>
       </c>
@@ -36371,7 +36527,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>61071</v>
       </c>
@@ -36403,7 +36559,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>67344</v>
       </c>
@@ -36435,7 +36591,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>55665</v>
       </c>
@@ -36467,7 +36623,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>56648</v>
       </c>
@@ -36498,8 +36654,11 @@
       <c r="Q411" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S411" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>69303</v>
       </c>
@@ -36531,7 +36690,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>57307</v>
       </c>
@@ -36563,7 +36722,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>58599</v>
       </c>
@@ -36595,7 +36754,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>66437</v>
       </c>
@@ -36627,7 +36786,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>64385</v>
       </c>
@@ -37171,7 +37330,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>63943</v>
       </c>
@@ -37203,7 +37362,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>70878</v>
       </c>
@@ -37235,7 +37394,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>54506</v>
       </c>
@@ -37267,7 +37426,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>64239</v>
       </c>
@@ -37299,7 +37458,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>70204</v>
       </c>
@@ -37331,7 +37490,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>65243</v>
       </c>
@@ -37363,7 +37522,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>55870</v>
       </c>
@@ -37395,7 +37554,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>58223</v>
       </c>
@@ -37427,7 +37586,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>61074</v>
       </c>
@@ -37459,7 +37618,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>56395</v>
       </c>
@@ -37491,7 +37650,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>59270</v>
       </c>
@@ -37523,7 +37682,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>60821</v>
       </c>
@@ -37555,7 +37714,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>70770</v>
       </c>
@@ -37587,7 +37746,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>70793</v>
       </c>
@@ -37618,8 +37777,11 @@
       <c r="Q446" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S446" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>62794</v>
       </c>
@@ -37651,7 +37813,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>54218</v>
       </c>
@@ -38707,7 +38869,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>61354</v>
       </c>
@@ -38739,7 +38901,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>59824</v>
       </c>
@@ -38771,7 +38933,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>56901</v>
       </c>
@@ -38803,7 +38965,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>58656</v>
       </c>
@@ -38835,7 +38997,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>55804</v>
       </c>
@@ -38867,7 +39029,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>71557</v>
       </c>
@@ -38898,8 +39060,15 @@
       <c r="Q486" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S486" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T486" s="6"/>
+      <c r="U486" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>65711</v>
       </c>
@@ -38931,7 +39100,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>62614</v>
       </c>
@@ -38963,7 +39132,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>68983</v>
       </c>
@@ -38995,7 +39164,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>69435</v>
       </c>
@@ -39027,7 +39196,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>68397</v>
       </c>
@@ -39059,7 +39228,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>54219</v>
       </c>
@@ -39091,7 +39260,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>66219</v>
       </c>
@@ -39123,7 +39292,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>68718</v>
       </c>
@@ -39155,7 +39324,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>66172</v>
       </c>
@@ -39187,7 +39356,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>61585</v>
       </c>
@@ -39219,7 +39388,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>72210</v>
       </c>
@@ -39251,7 +39420,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>61635</v>
       </c>
@@ -39283,7 +39452,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>70538</v>
       </c>
@@ -39314,8 +39483,11 @@
       <c r="Q499" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S499" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="500" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>68509</v>
       </c>
@@ -39347,7 +39519,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>58646</v>
       </c>

--- a/Iter1-analysisPairs.xlsx
+++ b/Iter1-analysisPairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1FD8D-036C-47C4-96B3-DC8C01B4E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A12A0-4A23-4082-B2C3-9DF44A439E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3413" uniqueCount="1806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1807">
   <si>
     <t>UID</t>
   </si>
@@ -5459,6 +5459,9 @@
   </si>
   <si>
     <t>Could be another ADD that is related to issue ADD</t>
+  </si>
+  <si>
+    <t>CEP - 15</t>
   </si>
 </sst>
 </file>
@@ -22721,8 +22724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:U501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A348" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R411" sqref="R411"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R180" sqref="R180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29123,7 +29126,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>63994</v>
       </c>
@@ -29155,7 +29158,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>65236</v>
       </c>
@@ -29187,7 +29190,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>56594</v>
       </c>
@@ -29219,7 +29222,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>68767</v>
       </c>
@@ -29250,8 +29253,14 @@
       <c r="Q180" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S180" s="1">
+        <v>7</v>
+      </c>
+      <c r="T180" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>66424</v>
       </c>
@@ -29283,7 +29292,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>63547</v>
       </c>
@@ -29315,7 +29324,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>69438</v>
       </c>
@@ -29347,7 +29356,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>67237</v>
       </c>
@@ -29379,7 +29388,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>71689</v>
       </c>
@@ -29411,7 +29420,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>58674</v>
       </c>
@@ -29443,7 +29452,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>58668</v>
       </c>
@@ -29475,7 +29484,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>55343</v>
       </c>
@@ -29507,7 +29516,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>63645</v>
       </c>
@@ -29539,7 +29548,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>57647</v>
       </c>
@@ -29571,7 +29580,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>65456</v>
       </c>
@@ -29603,7 +29612,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>61447</v>
       </c>
@@ -29922,6 +29931,9 @@
       <c r="Q201" t="s">
         <v>396</v>
       </c>
+      <c r="S201" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
@@ -30018,6 +30030,13 @@
       <c r="Q204" t="s">
         <v>535</v>
       </c>
+      <c r="S204" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="T204" s="6"/>
+      <c r="U204" t="s">
+        <v>1805</v>
+      </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
@@ -33225,7 +33244,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>68885</v>
       </c>
@@ -33257,7 +33276,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>69947</v>
       </c>
@@ -33289,7 +33308,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>65867</v>
       </c>
@@ -33321,7 +33340,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>54630</v>
       </c>
@@ -33353,7 +33372,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>61735</v>
       </c>
@@ -33385,7 +33404,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>61941</v>
       </c>
@@ -33417,7 +33436,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>71667</v>
       </c>
@@ -33449,7 +33468,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>69491</v>
       </c>
@@ -33481,7 +33500,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>56063</v>
       </c>
@@ -33513,7 +33532,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>70784</v>
       </c>
@@ -33545,7 +33564,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>57081</v>
       </c>
@@ -33577,7 +33596,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>65322</v>
       </c>
@@ -33609,7 +33628,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>61318</v>
       </c>
@@ -33641,7 +33660,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>71146</v>
       </c>
@@ -33673,7 +33692,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>68418</v>
       </c>
@@ -33704,8 +33723,14 @@
       <c r="Q319" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S319" s="4">
+        <v>7</v>
+      </c>
+      <c r="U319" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>64609</v>
       </c>
@@ -34252,7 +34277,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>60030</v>
       </c>
@@ -34284,7 +34309,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>54403</v>
       </c>
@@ -34316,7 +34341,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>61565</v>
       </c>
@@ -34348,7 +34373,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>58047</v>
       </c>
@@ -34380,7 +34405,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>67478</v>
       </c>
@@ -34412,7 +34437,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>70533</v>
       </c>
@@ -34444,7 +34469,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>59765</v>
       </c>
@@ -34476,7 +34501,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>67591</v>
       </c>
@@ -34508,7 +34533,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>69610</v>
       </c>
@@ -34540,7 +34565,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>71159</v>
       </c>
@@ -34572,7 +34597,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>61782</v>
       </c>
@@ -34604,7 +34629,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>69439</v>
       </c>
@@ -34636,7 +34661,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>60786</v>
       </c>
@@ -34668,7 +34693,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>69013</v>
       </c>
@@ -34699,8 +34724,11 @@
       <c r="Q350" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S350" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>64315</v>
       </c>
@@ -34732,7 +34760,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>60543</v>
       </c>
@@ -36818,7 +36846,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>58118</v>
       </c>
@@ -36850,7 +36878,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>56407</v>
       </c>
@@ -36882,7 +36910,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>70738</v>
       </c>
@@ -36914,7 +36942,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>67137</v>
       </c>
@@ -36946,7 +36974,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>56092</v>
       </c>
@@ -36978,7 +37006,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>69631</v>
       </c>
@@ -37010,7 +37038,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>58789</v>
       </c>
@@ -37042,7 +37070,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>58784</v>
       </c>
@@ -37074,7 +37102,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>57078</v>
       </c>
@@ -37106,7 +37134,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>68545</v>
       </c>
@@ -37138,7 +37166,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>69125</v>
       </c>
@@ -37170,7 +37198,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>57058</v>
       </c>
@@ -37202,7 +37230,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>65716</v>
       </c>
@@ -37234,7 +37262,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>70384</v>
       </c>
@@ -37266,7 +37294,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>65062</v>
       </c>
@@ -37297,8 +37325,11 @@
       <c r="Q431" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S431" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>70640</v>
       </c>
@@ -37845,7 +37876,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>60084</v>
       </c>
@@ -37877,7 +37908,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>62042</v>
       </c>
@@ -37909,7 +37940,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>71536</v>
       </c>
@@ -37941,7 +37972,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>71214</v>
       </c>
@@ -37973,7 +38004,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>54383</v>
       </c>
@@ -38005,7 +38036,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>57915</v>
       </c>
@@ -38037,7 +38068,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>63208</v>
       </c>
@@ -38068,8 +38099,11 @@
       <c r="Q455" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S455" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="456" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>68868</v>
       </c>
@@ -38101,7 +38135,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>60903</v>
       </c>
@@ -38133,7 +38167,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>67925</v>
       </c>
@@ -38165,7 +38199,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>63209</v>
       </c>
@@ -38197,7 +38231,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>54350</v>
       </c>
@@ -38229,7 +38263,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>54701</v>
       </c>
@@ -38261,7 +38295,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>67242</v>
       </c>
@@ -38293,7 +38327,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>66503</v>
       </c>
@@ -38325,7 +38359,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>66733</v>
       </c>

--- a/Iter1-analysisPairs.xlsx
+++ b/Iter1-analysisPairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5A12A0-4A23-4082-B2C3-9DF44A439E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A795014E-0FAE-447E-A853-5DF879777B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6840" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArchIssuesAllEmails" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1806">
   <si>
     <t>UID</t>
   </si>
@@ -5378,9 +5378,6 @@
   </si>
   <si>
     <t>Duplicate because email is send twice</t>
-  </si>
-  <si>
-    <t>3 or 6</t>
   </si>
   <si>
     <t>Email is meeting announcement</t>
@@ -5843,8 +5840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S101" sqref="S101"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8328,10 +8325,9 @@
       <c r="Q68" t="s">
         <v>127</v>
       </c>
-      <c r="S68" t="s">
-        <v>721</v>
-      </c>
-      <c r="T68" s="1"/>
+      <c r="S68" s="5" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
@@ -10264,8 +10260,8 @@
       <c r="Q121" t="s">
         <v>793</v>
       </c>
-      <c r="S121" s="1" t="s">
-        <v>1779</v>
+      <c r="S121" s="3" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.3">
@@ -10379,7 +10375,7 @@
         <v>716</v>
       </c>
       <c r="U124" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.3">
@@ -10611,7 +10607,7 @@
         <v>1775</v>
       </c>
       <c r="W130" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.3">
@@ -10684,7 +10680,7 @@
         <v>717</v>
       </c>
       <c r="U132" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.3">
@@ -10946,7 +10942,7 @@
         <v>716</v>
       </c>
       <c r="U139" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.3">
@@ -10983,7 +10979,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="6"/>
       <c r="U140" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.3">
@@ -11215,7 +11211,7 @@
         <v>716</v>
       </c>
       <c r="U146" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.3">
@@ -11955,7 +11951,7 @@
       </c>
       <c r="T168" s="6"/>
       <c r="U168" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
@@ -12121,7 +12117,7 @@
         <v>716</v>
       </c>
       <c r="U173" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.3">
@@ -12550,7 +12546,7 @@
       </c>
       <c r="T186" s="6"/>
       <c r="U186" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
@@ -14444,7 +14440,7 @@
         <v>7</v>
       </c>
       <c r="T245" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
@@ -15260,7 +15256,7 @@
       </c>
       <c r="T270" s="6"/>
       <c r="U270" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.3">
@@ -15685,7 +15681,7 @@
         <v>717</v>
       </c>
       <c r="U283" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.3">
@@ -16042,6 +16038,9 @@
       <c r="Q294" t="s">
         <v>219</v>
       </c>
+      <c r="S294" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295">
@@ -16434,7 +16433,7 @@
       </c>
       <c r="T306" s="8"/>
       <c r="U306" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.3">
@@ -17413,7 +17412,7 @@
         <v>716</v>
       </c>
       <c r="U336" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
@@ -22724,8 +22723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
   <dimension ref="A1:U501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R180" sqref="R180"/>
+    <sheetView tabSelected="1" topLeftCell="C366" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V379" sqref="V379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26543,7 +26542,7 @@
       </c>
       <c r="T103" s="6"/>
       <c r="U103" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.3">
@@ -26620,7 +26619,7 @@
       </c>
       <c r="T105" s="6"/>
       <c r="U105" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.3">
@@ -26728,7 +26727,7 @@
         <v>7</v>
       </c>
       <c r="U108" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
@@ -26874,7 +26873,7 @@
         <v>716</v>
       </c>
       <c r="U112" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
@@ -26950,7 +26949,7 @@
         <v>717</v>
       </c>
       <c r="U114" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
@@ -26989,7 +26988,7 @@
       </c>
       <c r="T115" s="6"/>
       <c r="U115" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.3">
@@ -27392,7 +27391,7 @@
         <v>3</v>
       </c>
       <c r="U126" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.3">
@@ -27433,7 +27432,7 @@
         <v>716</v>
       </c>
       <c r="U127" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.3">
@@ -27512,7 +27511,7 @@
         <v>7</v>
       </c>
       <c r="U129" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -27658,7 +27657,7 @@
         <v>3</v>
       </c>
       <c r="U133" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
@@ -27766,7 +27765,7 @@
         <v>12</v>
       </c>
       <c r="U136" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
@@ -28375,7 +28374,7 @@
         <v>717</v>
       </c>
       <c r="U153" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
@@ -29257,7 +29256,7 @@
         <v>7</v>
       </c>
       <c r="T180" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
@@ -30035,7 +30034,7 @@
       </c>
       <c r="T204" s="6"/>
       <c r="U204" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
@@ -30073,7 +30072,7 @@
         <v>717</v>
       </c>
       <c r="U205" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
@@ -39099,7 +39098,7 @@
       </c>
       <c r="T486" s="6"/>
       <c r="U486" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="487" spans="1:21" x14ac:dyDescent="0.3">

--- a/Iter1-analysisPairs.xlsx
+++ b/Iter1-analysisPairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70FEFCD-6DB7-469D-9FD5-C1368E2076CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4257C87F-7E66-42AA-AFFA-2B2F0688636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3424" uniqueCount="1805">
   <si>
     <t>UID</t>
   </si>
@@ -5453,6 +5453,9 @@
   </si>
   <si>
     <t>precision</t>
+  </si>
+  <si>
+    <t>Pattern counts:</t>
   </si>
 </sst>
 </file>
@@ -5567,2302 +5570,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchIssuesAllEmails!$AB$2:$AB$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.90476190476190477</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.90909090909090906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.91304347826086951</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.88461538461538458</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85185185185185186</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.82758620689655171</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.83870967741935487</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.84848484848484851</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.82352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78378378378378377</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.76315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.74358974358974361</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.73170731707317072</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.73809523809523814</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.7441860465116279</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.73333333333333328</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.73913043478260865</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.72340425531914898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.72916666666666663</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.73469387755102045</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.72549019607843135</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.71153846153846156</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.69811320754716977</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.68518518518518523</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.67272727272727273</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6785714285714286</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.68421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.67241379310344829</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.67796610169491522</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.68333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.67213114754098358</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.66129032258064513</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.65079365079365081</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.640625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.63076923076923075</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.62121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.61194029850746268</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.6029411764705882</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.59420289855072461</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.58571428571428574</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.57746478873239437</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.56944444444444442</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.56164383561643838</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.56756756756756754</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.56578947368421051</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.55844155844155841</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.55128205128205132</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.55696202531645567</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.54320987654320985</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.53658536585365857</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.53012048192771088</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.52380952380952384</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.51764705882352946</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.52325581395348841</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.51724137931034486</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.52272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.5168539325842697</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.51111111111111107</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.51648351648351654</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.51086956521739135</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.5161290322580645</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.51063829787234039</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.50526315789473686</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.49484536082474229</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.48979591836734693</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.49494949494949497</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CF8-43C7-8D67-267C42F870CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="890963632"/>
-        <c:axId val="1023475024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="890963632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1023475024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1023475024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="890963632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>ArchEmailsAllIssues!$AB$2:$AB$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90909090909090906</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.91666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92307692307692313</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.88888888888888884</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.84210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86363636363636365</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.86956521739130432</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.84615384615384615</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.85185185185185186</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.8214285714285714</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.82758620689655171</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.83870967741935487</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.84375</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.84848484848484851</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.82352941176470584</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.77777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.7567567567567568</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.76315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.76923076923076927</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.75609756097560976</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.76190476190476186</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.76744186046511631</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.75555555555555554</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.73913043478260865</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.74468085106382975</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.72916666666666663</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.7142857142857143</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.68627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.67307692307692313</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.67924528301886788</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.65454545454545454</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.6428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.63157894736842102</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.63793103448275867</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.6271186440677966</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.6333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.63934426229508201</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.64516129032258063</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.63492063492063489</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.61538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.62121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.61194029850746268</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.6029411764705882</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.60869565217391308</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.61428571428571432</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.60563380281690138</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.59722222222222221</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.58904109589041098</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.59459459459459463</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.59210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.59740259740259738</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.60256410256410253</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.59493670886075944</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.58750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.58024691358024694</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.57317073170731703</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.5662650602409639</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.55952380952380953</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.55294117647058827</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.54651162790697672</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.54022988505747127</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.53409090909090906</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.5280898876404494</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.52222222222222225</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.51648351648351654</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.51086956521739135</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.5053763440860215</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.49473684210526314</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.48958333333333331</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.4845360824742268</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.47959183673469385</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.47474747474747475</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-462F-43AA-9B27-9FDFCA0746E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1046427568"/>
-        <c:axId val="1046428048"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1046427568"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1046428048"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1046428048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1046427568"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>505691</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>41564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>200891</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>83128</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D02564-986A-3A00-B795-91F8F4F17F6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>148243</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171797</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>453043</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9796131B-3BBC-77A6-159E-8180ACB4F47C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8128,15 +5835,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB501"/>
+  <dimension ref="A1:AD501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="AC1" sqref="AC1:AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8179,8 +5886,11 @@
       <c r="AB1" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>380416</v>
       </c>
@@ -8224,8 +5934,15 @@
         <f>AA2/Z2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <f>COUNTIF(S2:S101,AC2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>333143</v>
       </c>
@@ -8270,8 +5987,15 @@
         <f t="shared" ref="AB3:AB66" si="1">AA3/Z3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIF(S2:S101,AC3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>315883</v>
       </c>
@@ -8316,8 +6040,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <f>COUNTIF(S2:S101,AC4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>304175</v>
       </c>
@@ -8362,8 +6093,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <f>COUNTIF(S2:S101,AC5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>286118</v>
       </c>
@@ -8408,8 +6146,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <f>COUNTIF(S2:S101,AC6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>356899</v>
       </c>
@@ -8454,8 +6199,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <f>COUNTIF(S2:S101,AC7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>390065</v>
       </c>
@@ -8500,8 +6252,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <f>COUNTIF(S2:S101,AC8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>375188</v>
       </c>
@@ -8546,8 +6305,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <f>COUNTIF(S2:S101,AC9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>299689</v>
       </c>
@@ -8592,8 +6358,15 @@
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>11</v>
+      </c>
+      <c r="AD10">
+        <f>COUNTIF(S2:S101,AC10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>299693</v>
       </c>
@@ -8638,8 +6411,15 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>12</v>
+      </c>
+      <c r="AD11">
+        <f>COUNTIF(S2:S101,AC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>286634</v>
       </c>
@@ -8684,8 +6464,15 @@
         <f t="shared" si="1"/>
         <v>0.81818181818181823</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>13</v>
+      </c>
+      <c r="AD12">
+        <f>COUNTIF(S2:S101,AC12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>326717</v>
       </c>
@@ -8730,8 +6517,15 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <f>COUNTIF(S2:S101,AC13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>367502</v>
       </c>
@@ -8776,8 +6570,15 @@
         <f t="shared" si="1"/>
         <v>0.84615384615384615</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <f>COUNTIF(S2:S101,AC14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>357065</v>
       </c>
@@ -8822,8 +6623,15 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>16</v>
+      </c>
+      <c r="AD15">
+        <f>COUNTIF(S2:S101,AC15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>364988</v>
       </c>
@@ -26114,21 +23922,20 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CCD5B3-028A-4A0C-BDA3-C24CA609BB7B}">
-  <dimension ref="A1:AB501"/>
+  <dimension ref="A1:AD501"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="AC1" sqref="AC1:AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26171,8 +23978,11 @@
       <c r="AB1" t="s">
         <v>1803</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>59412</v>
       </c>
@@ -26216,8 +24026,15 @@
         <f>AA2/Z2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <f>COUNTIF(S2:S101,AC2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>65645</v>
       </c>
@@ -26262,8 +24079,15 @@
         <f t="shared" ref="AB3:AB66" si="1">AA3/Z3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <f>COUNTIF(S2:S101,AC3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>68115</v>
       </c>
@@ -26308,8 +24132,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <f>COUNTIF(S2:S101,AC4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>68643</v>
       </c>
@@ -26357,8 +24188,15 @@
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <f>COUNTIF(S2:S101,AC5)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>67291</v>
       </c>
@@ -26403,8 +24241,15 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC6">
+        <v>6</v>
+      </c>
+      <c r="AD6">
+        <f>COUNTIF(S2:S101,AC6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>65331</v>
       </c>
@@ -26449,8 +24294,15 @@
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7">
+        <v>7</v>
+      </c>
+      <c r="AD7">
+        <f>COUNTIF(S2:S101,AC7)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61788</v>
       </c>
@@ -26498,8 +24350,15 @@
         <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AD8">
+        <f>COUNTIF(S2:S101,AC8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>71087</v>
       </c>
@@ -26547,8 +24406,15 @@
         <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC9">
+        <v>9</v>
+      </c>
+      <c r="AD9">
+        <f>COUNTIF(S2:S101,AC9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>57672</v>
       </c>
@@ -26596,8 +24462,15 @@
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC10">
+        <v>11</v>
+      </c>
+      <c r="AD10">
+        <f>COUNTIF(S2:S101,AC10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>66822</v>
       </c>
@@ -26645,8 +24518,15 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC11">
+        <v>12</v>
+      </c>
+      <c r="AD11">
+        <f>COUNTIF(S2:S101,AC11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>59261</v>
       </c>
@@ -26691,8 +24571,15 @@
         <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC12">
+        <v>13</v>
+      </c>
+      <c r="AD12">
+        <f>COUNTIF(S2:S101,AC12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>57165</v>
       </c>
@@ -26740,8 +24627,15 @@
         <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC13">
+        <v>14</v>
+      </c>
+      <c r="AD13">
+        <f>COUNTIF(S2:S101,AC13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>56294</v>
       </c>
@@ -26789,8 +24683,15 @@
         <f t="shared" si="1"/>
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14">
+        <v>15</v>
+      </c>
+      <c r="AD14">
+        <f>COUNTIF(S2:S101,AC14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>65620</v>
       </c>
@@ -26838,8 +24739,15 @@
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15">
+        <v>16</v>
+      </c>
+      <c r="AD15">
+        <f>COUNTIF(S2:S101,AC15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>54511</v>
       </c>
@@ -44078,6 +41986,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Iter1-analysisPairs.xlsx
+++ b/Iter1-analysisPairs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Desktop\Organizer\School\BachelorProject\GroundedTheoryDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F8B1A-2170-495C-BCCA-2A55DA045533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A621C742-8699-40B2-B1E1-4A4AE92B6D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="1802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="1802">
   <si>
     <t>UID</t>
   </si>
@@ -5828,8 +5828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB98" sqref="AB98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="AD2">
         <f>COUNTIF(S2:S101,AC2)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
@@ -5965,17 +5965,17 @@
         <v>13</v>
       </c>
       <c r="S3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA34" si="0">AA2+(IF(ISNUMBER(S3),1,0))</f>
+        <f>AA2+IF(S3 &gt; 0,1,0)</f>
         <v>2</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB66" si="1">AA3/Z3</f>
+        <f t="shared" ref="AB3:AB66" si="0">AA3/Z3</f>
         <v>1</v>
       </c>
       <c r="AC3">
@@ -5983,7 +5983,7 @@
       </c>
       <c r="AD3">
         <f>COUNTIF(S2:S101,AC3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
@@ -6024,11 +6024,11 @@
         <v>3</v>
       </c>
       <c r="AA4">
+        <f>AA3+IF(S4 &gt; 0,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB4">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC4">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="AD4">
         <f>COUNTIF(S2:S101,AC4)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
@@ -6071,25 +6071,25 @@
         <v>17</v>
       </c>
       <c r="S5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <v>4</v>
       </c>
       <c r="AA5">
+        <f t="shared" ref="AA5:AA68" si="1">AA4+IF(S5 &gt; 0,1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC5">
         <v>4</v>
       </c>
       <c r="AD5">
         <f>COUNTIF(S2:S101,AC5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
@@ -6130,19 +6130,19 @@
         <v>5</v>
       </c>
       <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
         <v>6</v>
       </c>
       <c r="AD6">
         <f>COUNTIF(S2:S101,AC6)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
@@ -6177,25 +6177,25 @@
         <v>21</v>
       </c>
       <c r="S7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z7">
         <v>6</v>
       </c>
       <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AC7">
         <v>7</v>
       </c>
       <c r="AD7">
         <f>COUNTIF(S2:S101,AC7)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
@@ -6230,25 +6230,25 @@
         <v>23</v>
       </c>
       <c r="S8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z8">
         <v>7</v>
       </c>
       <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="AC8">
         <v>8</v>
       </c>
       <c r="AD8">
         <f>COUNTIF(S2:S101,AC8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
@@ -6283,25 +6283,25 @@
         <v>25</v>
       </c>
       <c r="S9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>8</v>
       </c>
       <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>9</v>
       </c>
       <c r="AD9">
         <f>COUNTIF(S2:S101,AC9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
@@ -6335,18 +6335,18 @@
       <c r="Q10" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>715</v>
+      <c r="S10" s="3">
+        <v>7</v>
       </c>
       <c r="Z10">
         <v>9</v>
       </c>
       <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="AC10">
@@ -6388,19 +6388,19 @@
       <c r="Q11" t="s">
         <v>27</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>715</v>
+      <c r="S11" s="3">
+        <v>7</v>
       </c>
       <c r="Z11">
         <v>10</v>
       </c>
       <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AC11">
         <v>12</v>
@@ -6442,25 +6442,25 @@
         <v>30</v>
       </c>
       <c r="S12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>11</v>
       </c>
       <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="1"/>
-        <v>0.81818181818181823</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="AC12">
         <v>13</v>
       </c>
       <c r="AD12">
         <f>COUNTIF(S2:S101,AC12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
@@ -6495,18 +6495,18 @@
         <v>32</v>
       </c>
       <c r="S13" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z13">
         <v>12</v>
       </c>
       <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="AC13">
         <v>14</v>
@@ -6548,18 +6548,18 @@
         <v>34</v>
       </c>
       <c r="S14" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z14">
         <v>13</v>
       </c>
       <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="1"/>
-        <v>0.84615384615384615</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="AC14">
         <v>15</v>
@@ -6601,18 +6601,18 @@
         <v>36</v>
       </c>
       <c r="S15" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z15">
         <v>14</v>
       </c>
       <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="AC15">
         <v>16</v>
@@ -6660,12 +6660,12 @@
         <v>15</v>
       </c>
       <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="1"/>
-        <v>0.8666666666666667</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -6700,18 +6700,18 @@
         <v>38</v>
       </c>
       <c r="S17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z17">
         <v>16</v>
       </c>
       <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AB17">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -6746,17 +6746,17 @@
         <v>40</v>
       </c>
       <c r="S18" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="Z18">
         <v>17</v>
       </c>
       <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AB18">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="1"/>
         <v>0.88235294117647056</v>
       </c>
     </row>
@@ -6792,17 +6792,17 @@
         <v>42</v>
       </c>
       <c r="S19" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Z19">
         <v>18</v>
       </c>
       <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AB19">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
@@ -6838,18 +6838,18 @@
         <v>399</v>
       </c>
       <c r="S20" s="1">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="Z20">
         <v>19</v>
       </c>
       <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="AB20">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="1"/>
-        <v>0.89473684210526316</v>
+        <v>0.84210526315789469</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
@@ -6884,18 +6884,18 @@
         <v>779</v>
       </c>
       <c r="S21" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z21">
         <v>20</v>
       </c>
       <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AB21">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB21">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
@@ -6930,18 +6930,18 @@
         <v>44</v>
       </c>
       <c r="S22" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>21</v>
       </c>
       <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="AB22">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AB22">
-        <f t="shared" si="1"/>
-        <v>0.90476190476190477</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
@@ -6976,18 +6976,18 @@
         <v>46</v>
       </c>
       <c r="S23" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z23">
         <v>22</v>
       </c>
       <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="AB23">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
@@ -7022,18 +7022,18 @@
         <v>48</v>
       </c>
       <c r="S24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z24">
         <v>23</v>
       </c>
       <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AB24">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AB24">
-        <f t="shared" si="1"/>
-        <v>0.91304347826086951</v>
+        <v>0.82608695652173914</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
@@ -7068,7 +7068,7 @@
         <v>44</v>
       </c>
       <c r="S25" s="4">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="U25" t="s">
         <v>1760</v>
@@ -7077,12 +7077,12 @@
         <v>24</v>
       </c>
       <c r="AA25">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AB25">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
@@ -7116,8 +7116,8 @@
       <c r="Q26" t="s">
         <v>51</v>
       </c>
-      <c r="S26" s="5" t="s">
-        <v>716</v>
+      <c r="S26" s="5">
+        <v>7</v>
       </c>
       <c r="U26" t="s">
         <v>717</v>
@@ -7129,12 +7129,12 @@
         <v>25</v>
       </c>
       <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="1"/>
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
@@ -7169,18 +7169,18 @@
         <v>53</v>
       </c>
       <c r="S27" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z27">
         <v>26</v>
       </c>
       <c r="AA27">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AB27">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AB27">
-        <f t="shared" si="1"/>
-        <v>0.88461538461538458</v>
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -7214,19 +7214,19 @@
       <c r="Q28" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>715</v>
+      <c r="S28" s="3">
+        <v>7</v>
       </c>
       <c r="Z28">
         <v>27</v>
       </c>
       <c r="AA28">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AB28">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="1"/>
-        <v>0.85185185185185186</v>
+        <v>0.81481481481481477</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
@@ -7261,18 +7261,18 @@
         <v>57</v>
       </c>
       <c r="S29" s="1">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="Z29">
         <v>28</v>
       </c>
       <c r="AA29">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="AB29">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AB29">
-        <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
@@ -7306,19 +7306,19 @@
       <c r="Q30" t="s">
         <v>70</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>716</v>
+      <c r="S30" s="5">
+        <v>6</v>
       </c>
       <c r="Z30">
         <v>29</v>
       </c>
       <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="AB30">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AB30">
-        <f t="shared" si="1"/>
-        <v>0.82758620689655171</v>
+        <v>0.7931034482758621</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -7362,12 +7362,12 @@
         <v>30</v>
       </c>
       <c r="AA31">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AB31">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AB31">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -7402,7 +7402,7 @@
         <v>15</v>
       </c>
       <c r="S32" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U32" t="s">
         <v>1761</v>
@@ -7411,12 +7411,12 @@
         <v>31</v>
       </c>
       <c r="AA32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AB32">
         <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="AB32">
-        <f t="shared" si="1"/>
-        <v>0.83870967741935487</v>
+        <v>0.80645161290322576</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
@@ -7451,18 +7451,18 @@
         <v>778</v>
       </c>
       <c r="S33" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z33">
         <v>32</v>
       </c>
       <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AB33">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AB33">
-        <f t="shared" si="1"/>
-        <v>0.84375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
@@ -7497,7 +7497,7 @@
         <v>62</v>
       </c>
       <c r="S34" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U34" t="s">
         <v>719</v>
@@ -7506,12 +7506,12 @@
         <v>33</v>
       </c>
       <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AB34">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AB34">
-        <f t="shared" si="1"/>
-        <v>0.84848484848484851</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
@@ -7545,19 +7545,19 @@
       <c r="Q35" t="s">
         <v>66</v>
       </c>
-      <c r="S35" s="5" t="s">
-        <v>716</v>
+      <c r="S35" s="5">
+        <v>-2</v>
       </c>
       <c r="Z35">
         <v>34</v>
       </c>
       <c r="AA35">
-        <f t="shared" ref="AA35:AA66" si="2">AA34+(IF(ISNUMBER(S35),1,0))</f>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="AB35">
-        <f t="shared" si="1"/>
-        <v>0.82352941176470584</v>
+        <f t="shared" si="0"/>
+        <v>0.79411764705882348</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
@@ -7591,8 +7591,8 @@
       <c r="Q36" t="s">
         <v>68</v>
       </c>
-      <c r="S36" s="3" t="s">
-        <v>715</v>
+      <c r="S36" s="3">
+        <v>-2</v>
       </c>
       <c r="U36" t="s">
         <v>803</v>
@@ -7601,12 +7601,12 @@
         <v>35</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="AB36">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>0.77142857142857146</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
@@ -7640,8 +7640,8 @@
       <c r="Q37" t="s">
         <v>71</v>
       </c>
-      <c r="S37" s="3" t="s">
-        <v>715</v>
+      <c r="S37" s="3">
+        <v>-2</v>
       </c>
       <c r="U37" t="s">
         <v>804</v>
@@ -7650,12 +7650,12 @@
         <v>36</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="AB37">
-        <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
@@ -7690,18 +7690,18 @@
         <v>780</v>
       </c>
       <c r="S38" s="1">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="Z38">
         <v>37</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="1"/>
-        <v>0.78378378378378377</v>
+        <f t="shared" si="0"/>
+        <v>0.72972972972972971</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
@@ -7735,8 +7735,8 @@
       <c r="Q39" t="s">
         <v>74</v>
       </c>
-      <c r="S39" s="5" t="s">
-        <v>716</v>
+      <c r="S39" s="5">
+        <v>7</v>
       </c>
       <c r="U39" t="s">
         <v>805</v>
@@ -7745,12 +7745,12 @@
         <v>38</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="AB39">
-        <f t="shared" si="1"/>
-        <v>0.76315789473684215</v>
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
@@ -7784,8 +7784,8 @@
       <c r="Q40" t="s">
         <v>782</v>
       </c>
-      <c r="S40" s="2" t="s">
-        <v>715</v>
+      <c r="S40" s="2">
+        <v>-1</v>
       </c>
       <c r="U40" t="s">
         <v>850</v>
@@ -7794,12 +7794,12 @@
         <v>39</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="1"/>
-        <v>0.74358974358974361</v>
+        <f t="shared" si="0"/>
+        <v>0.71794871794871795</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
@@ -7834,18 +7834,18 @@
         <v>77</v>
       </c>
       <c r="S41" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Z41">
         <v>40</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
@@ -7879,8 +7879,8 @@
       <c r="Q42" t="s">
         <v>80</v>
       </c>
-      <c r="S42" s="5" t="s">
-        <v>716</v>
+      <c r="S42" s="5">
+        <v>-2</v>
       </c>
       <c r="U42" t="s">
         <v>851</v>
@@ -7889,12 +7889,12 @@
         <v>41</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="AB42">
-        <f t="shared" si="1"/>
-        <v>0.73170731707317072</v>
+        <f t="shared" si="0"/>
+        <v>0.70731707317073167</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
@@ -7929,18 +7929,18 @@
         <v>82</v>
       </c>
       <c r="S43" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z43">
         <v>42</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="AB43">
-        <f t="shared" si="1"/>
-        <v>0.73809523809523814</v>
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
@@ -7975,18 +7975,18 @@
         <v>84</v>
       </c>
       <c r="S44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z44">
         <v>43</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="1"/>
-        <v>0.7441860465116279</v>
+        <f t="shared" si="0"/>
+        <v>0.72093023255813948</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
@@ -8021,7 +8021,7 @@
         <v>86</v>
       </c>
       <c r="S45" s="1">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="T45" s="2"/>
       <c r="U45" t="s">
@@ -8031,12 +8031,12 @@
         <v>44</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="AB45">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0.70454545454545459</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
@@ -8070,8 +8070,8 @@
       <c r="Q46" t="s">
         <v>88</v>
       </c>
-      <c r="S46" s="5" t="s">
-        <v>716</v>
+      <c r="S46" s="5">
+        <v>7</v>
       </c>
       <c r="U46" t="s">
         <v>853</v>
@@ -8080,12 +8080,12 @@
         <v>45</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="AB46">
-        <f t="shared" si="1"/>
-        <v>0.73333333333333328</v>
+        <f t="shared" si="0"/>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
@@ -8120,19 +8120,19 @@
         <v>91</v>
       </c>
       <c r="S47" s="1">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="T47" s="2"/>
       <c r="Z47">
         <v>46</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="1"/>
-        <v>0.73913043478260865</v>
+        <f t="shared" si="0"/>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
@@ -8166,8 +8166,8 @@
       <c r="Q48" t="s">
         <v>93</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>715</v>
+      <c r="S48" s="3">
+        <v>7</v>
       </c>
       <c r="U48" t="s">
         <v>854</v>
@@ -8176,12 +8176,12 @@
         <v>47</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB48">
-        <f t="shared" si="1"/>
-        <v>0.72340425531914898</v>
+        <f t="shared" si="0"/>
+        <v>0.7021276595744681</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
@@ -8216,7 +8216,7 @@
         <v>59</v>
       </c>
       <c r="S49" s="1">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="U49" t="s">
         <v>857</v>
@@ -8225,12 +8225,12 @@
         <v>48</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB49">
-        <f t="shared" si="1"/>
-        <v>0.72916666666666663</v>
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
@@ -8265,7 +8265,7 @@
         <v>59</v>
       </c>
       <c r="S50" s="4">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U50" t="s">
         <v>855</v>
@@ -8274,12 +8274,12 @@
         <v>49</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="1"/>
-        <v>0.73469387755102045</v>
+        <f t="shared" si="0"/>
+        <v>0.67346938775510201</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
@@ -8313,8 +8313,8 @@
       <c r="Q51" t="s">
         <v>97</v>
       </c>
-      <c r="S51" s="3" t="s">
-        <v>715</v>
+      <c r="S51" s="3">
+        <v>-2</v>
       </c>
       <c r="U51" t="s">
         <v>1801</v>
@@ -8323,12 +8323,12 @@
         <v>50</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB51">
-        <f t="shared" si="1"/>
-        <v>0.72</v>
+        <f t="shared" si="0"/>
+        <v>0.66</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
@@ -8363,7 +8363,7 @@
         <v>246</v>
       </c>
       <c r="S52" s="1">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="U52" t="s">
         <v>858</v>
@@ -8372,12 +8372,12 @@
         <v>51</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB52">
-        <f t="shared" si="1"/>
-        <v>0.72549019607843135</v>
+        <f t="shared" si="0"/>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
@@ -8411,8 +8411,8 @@
       <c r="Q53" t="s">
         <v>99</v>
       </c>
-      <c r="S53" s="3" t="s">
-        <v>715</v>
+      <c r="S53" s="3">
+        <v>-2</v>
       </c>
       <c r="U53" t="s">
         <v>859</v>
@@ -8421,12 +8421,12 @@
         <v>52</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="1"/>
-        <v>0.71153846153846156</v>
+        <f t="shared" si="0"/>
+        <v>0.63461538461538458</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
@@ -8460,8 +8460,8 @@
       <c r="Q54" t="s">
         <v>101</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>715</v>
+      <c r="S54" s="3">
+        <v>6</v>
       </c>
       <c r="U54" t="s">
         <v>860</v>
@@ -8470,12 +8470,12 @@
         <v>53</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB54">
-        <f t="shared" si="1"/>
-        <v>0.69811320754716977</v>
+        <f t="shared" si="0"/>
+        <v>0.64150943396226412</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
@@ -8509,8 +8509,8 @@
       <c r="Q55" t="s">
         <v>32</v>
       </c>
-      <c r="S55" s="5" t="s">
-        <v>716</v>
+      <c r="S55" s="5">
+        <v>-1</v>
       </c>
       <c r="T55" s="2"/>
       <c r="U55" t="s">
@@ -8520,12 +8520,12 @@
         <v>54</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB55">
-        <f t="shared" si="1"/>
-        <v>0.68518518518518523</v>
+        <f t="shared" si="0"/>
+        <v>0.62962962962962965</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
@@ -8559,8 +8559,8 @@
       <c r="Q56" t="s">
         <v>27</v>
       </c>
-      <c r="S56" s="3" t="s">
-        <v>715</v>
+      <c r="S56" s="3">
+        <v>-1</v>
       </c>
       <c r="T56" s="5"/>
       <c r="U56" t="s">
@@ -8570,12 +8570,12 @@
         <v>55</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="1"/>
-        <v>0.67272727272727273</v>
+        <f t="shared" si="0"/>
+        <v>0.61818181818181817</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
@@ -8610,7 +8610,7 @@
         <v>38</v>
       </c>
       <c r="S57" s="1">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="U57" t="s">
         <v>863</v>
@@ -8619,12 +8619,12 @@
         <v>56</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB57">
-        <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
+        <f t="shared" si="0"/>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
@@ -8659,7 +8659,7 @@
         <v>107</v>
       </c>
       <c r="S58" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" t="s">
@@ -8669,12 +8669,12 @@
         <v>57</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB58">
-        <f t="shared" si="1"/>
-        <v>0.68421052631578949</v>
+        <f t="shared" si="0"/>
+        <v>0.59649122807017541</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
@@ -8708,8 +8708,8 @@
       <c r="Q59" t="s">
         <v>55</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>715</v>
+      <c r="S59" s="3">
+        <v>7</v>
       </c>
       <c r="U59" t="s">
         <v>865</v>
@@ -8718,12 +8718,12 @@
         <v>58</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="1"/>
-        <v>0.67241379310344829</v>
+        <f t="shared" si="0"/>
+        <v>0.60344827586206895</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
@@ -8758,7 +8758,7 @@
         <v>53</v>
       </c>
       <c r="S60" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T60" s="3"/>
       <c r="U60" t="s">
@@ -8768,12 +8768,12 @@
         <v>59</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
       <c r="AB60">
-        <f t="shared" si="1"/>
-        <v>0.67796610169491522</v>
+        <f t="shared" si="0"/>
+        <v>0.59322033898305082</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
@@ -8808,7 +8808,7 @@
         <v>19</v>
       </c>
       <c r="S61" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U61" t="s">
         <v>1578</v>
@@ -8817,12 +8817,12 @@
         <v>60</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="1"/>
-        <v>0.68333333333333335</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
@@ -8856,8 +8856,8 @@
       <c r="Q62" t="s">
         <v>112</v>
       </c>
-      <c r="S62" s="5" t="s">
-        <v>716</v>
+      <c r="S62" s="5">
+        <v>6</v>
       </c>
       <c r="U62" t="s">
         <v>867</v>
@@ -8866,12 +8866,12 @@
         <v>61</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="1"/>
-        <v>0.67213114754098358</v>
+        <f t="shared" si="0"/>
+        <v>0.60655737704918034</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
@@ -8905,19 +8905,19 @@
       <c r="Q63" t="s">
         <v>114</v>
       </c>
-      <c r="S63" s="5" t="s">
-        <v>716</v>
+      <c r="S63" s="5">
+        <v>6</v>
       </c>
       <c r="Z63">
         <v>62</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="AB63">
-        <f t="shared" si="1"/>
-        <v>0.66129032258064513</v>
+        <f t="shared" si="0"/>
+        <v>0.61290322580645162</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
@@ -8951,19 +8951,19 @@
       <c r="Q64" t="s">
         <v>117</v>
       </c>
-      <c r="S64" s="3" t="s">
-        <v>715</v>
+      <c r="S64" s="3">
+        <v>-2</v>
       </c>
       <c r="Z64">
         <v>63</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="AB64">
-        <f t="shared" si="1"/>
-        <v>0.65079365079365081</v>
+        <f t="shared" si="0"/>
+        <v>0.60317460317460314</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
@@ -8997,8 +8997,8 @@
       <c r="Q65" t="s">
         <v>119</v>
       </c>
-      <c r="S65" s="2" t="s">
-        <v>716</v>
+      <c r="S65" s="2">
+        <v>-1</v>
       </c>
       <c r="T65" s="1">
         <v>7</v>
@@ -9010,12 +9010,12 @@
         <v>64</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="1"/>
-        <v>0.640625</v>
+        <f t="shared" si="0"/>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
@@ -9049,8 +9049,8 @@
       <c r="Q66" t="s">
         <v>97</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>715</v>
+      <c r="S66" s="3">
+        <v>-1</v>
       </c>
       <c r="U66" t="s">
         <v>804</v>
@@ -9059,12 +9059,12 @@
         <v>65</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
       <c r="AB66">
-        <f t="shared" si="1"/>
-        <v>0.63076923076923075</v>
+        <f t="shared" si="0"/>
+        <v>0.58461538461538465</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
@@ -9098,8 +9098,8 @@
       <c r="Q67" t="s">
         <v>86</v>
       </c>
-      <c r="S67" s="5" t="s">
-        <v>716</v>
+      <c r="S67" s="5">
+        <v>7</v>
       </c>
       <c r="U67" t="s">
         <v>869</v>
@@ -9108,12 +9108,12 @@
         <v>66</v>
       </c>
       <c r="AA67">
-        <f t="shared" ref="AA67:AA101" si="3">AA66+(IF(ISNUMBER(S67),1,0))</f>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="AB67">
-        <f t="shared" ref="AB67:AB101" si="4">AA67/Z67</f>
-        <v>0.62121212121212122</v>
+        <f t="shared" ref="AB67:AB101" si="2">AA67/Z67</f>
+        <v>0.59090909090909094</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
@@ -9147,19 +9147,19 @@
       <c r="Q68" t="s">
         <v>127</v>
       </c>
-      <c r="S68" s="5" t="s">
-        <v>716</v>
+      <c r="S68" s="5">
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>67</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="4"/>
-        <v>0.61194029850746268</v>
+        <f t="shared" si="2"/>
+        <v>0.58208955223880599</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
@@ -9193,8 +9193,8 @@
       <c r="Q69" t="s">
         <v>131</v>
       </c>
-      <c r="S69" s="5" t="s">
-        <v>716</v>
+      <c r="S69" s="5">
+        <v>-1</v>
       </c>
       <c r="T69" s="6"/>
       <c r="U69" t="s">
@@ -9204,12 +9204,12 @@
         <v>68</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="3"/>
-        <v>41</v>
+        <f t="shared" ref="AA69:AA101" si="3">AA68+IF(S69 &gt; 0,1,0)</f>
+        <v>39</v>
       </c>
       <c r="AB69">
-        <f t="shared" si="4"/>
-        <v>0.6029411764705882</v>
+        <f t="shared" si="2"/>
+        <v>0.57352941176470584</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
@@ -9243,19 +9243,19 @@
       <c r="Q70" t="s">
         <v>38</v>
       </c>
-      <c r="S70" s="5" t="s">
-        <v>716</v>
+      <c r="S70" s="5">
+        <v>7</v>
       </c>
       <c r="Z70">
         <v>69</v>
       </c>
       <c r="AA70">
         <f t="shared" si="3"/>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB70">
-        <f t="shared" si="4"/>
-        <v>0.59420289855072461</v>
+        <f t="shared" si="2"/>
+        <v>0.57971014492753625</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
@@ -9289,8 +9289,8 @@
       <c r="Q71" t="s">
         <v>135</v>
       </c>
-      <c r="S71" s="5" t="s">
-        <v>716</v>
+      <c r="S71" s="5">
+        <v>7</v>
       </c>
       <c r="T71" s="6"/>
       <c r="U71" t="s">
@@ -9304,7 +9304,7 @@
         <v>41</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.58571428571428574</v>
       </c>
     </row>
@@ -9339,8 +9339,8 @@
       <c r="Q72" t="s">
         <v>137</v>
       </c>
-      <c r="S72" s="5" t="s">
-        <v>716</v>
+      <c r="S72" s="5">
+        <v>-2</v>
       </c>
       <c r="Z72">
         <v>71</v>
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="AB72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.57746478873239437</v>
       </c>
     </row>
@@ -9385,8 +9385,8 @@
       <c r="Q73" t="s">
         <v>139</v>
       </c>
-      <c r="S73" s="5" t="s">
-        <v>716</v>
+      <c r="S73" s="5">
+        <v>-2</v>
       </c>
       <c r="Z73">
         <v>72</v>
@@ -9396,7 +9396,7 @@
         <v>41</v>
       </c>
       <c r="AB73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.56944444444444442</v>
       </c>
     </row>
@@ -9431,8 +9431,8 @@
       <c r="Q74" t="s">
         <v>142</v>
       </c>
-      <c r="S74" s="5" t="s">
-        <v>716</v>
+      <c r="S74" s="5">
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>73</v>
@@ -9442,7 +9442,7 @@
         <v>41</v>
       </c>
       <c r="AB74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.56164383561643838</v>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
         <v>840</v>
       </c>
       <c r="S75" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U75" t="s">
         <v>877</v>
@@ -9491,7 +9491,7 @@
         <v>42</v>
       </c>
       <c r="AB75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.56756756756756754</v>
       </c>
     </row>
@@ -9526,8 +9526,8 @@
       <c r="Q76" t="s">
         <v>144</v>
       </c>
-      <c r="S76" s="5" t="s">
-        <v>716</v>
+      <c r="S76" s="5">
+        <v>7</v>
       </c>
       <c r="T76" s="6"/>
       <c r="U76" t="s">
@@ -9538,11 +9538,11 @@
       </c>
       <c r="AA76">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB76">
-        <f t="shared" si="4"/>
-        <v>0.56000000000000005</v>
+        <f t="shared" si="2"/>
+        <v>0.57333333333333336</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
@@ -9577,7 +9577,7 @@
         <v>59</v>
       </c>
       <c r="S77" s="4">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="U77" t="s">
         <v>856</v>
@@ -9590,7 +9590,7 @@
         <v>43</v>
       </c>
       <c r="AB77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.56578947368421051</v>
       </c>
     </row>
@@ -9625,19 +9625,19 @@
       <c r="Q78" t="s">
         <v>785</v>
       </c>
-      <c r="S78" s="5" t="s">
-        <v>716</v>
+      <c r="S78" s="5">
+        <v>11</v>
       </c>
       <c r="Z78">
         <v>77</v>
       </c>
       <c r="AA78">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AB78">
-        <f t="shared" si="4"/>
-        <v>0.55844155844155841</v>
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
@@ -9671,19 +9671,19 @@
       <c r="Q79" t="s">
         <v>129</v>
       </c>
-      <c r="S79" s="5" t="s">
-        <v>716</v>
+      <c r="S79" s="5">
+        <v>7</v>
       </c>
       <c r="Z79">
         <v>78</v>
       </c>
       <c r="AA79">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB79">
-        <f t="shared" si="4"/>
-        <v>0.55128205128205132</v>
+        <f t="shared" si="2"/>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.3">
@@ -9718,18 +9718,18 @@
         <v>148</v>
       </c>
       <c r="S80" s="1">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="Z80">
         <v>79</v>
       </c>
       <c r="AA80">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB80">
-        <f t="shared" si="4"/>
-        <v>0.55696202531645567</v>
+        <f t="shared" si="2"/>
+        <v>0.569620253164557</v>
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
@@ -9763,19 +9763,19 @@
       <c r="Q81" t="s">
         <v>150</v>
       </c>
-      <c r="S81" s="5" t="s">
-        <v>716</v>
+      <c r="S81" s="5">
+        <v>-2</v>
       </c>
       <c r="Z81">
         <v>80</v>
       </c>
       <c r="AA81">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB81">
-        <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
@@ -9809,8 +9809,8 @@
       <c r="Q82" t="s">
         <v>786</v>
       </c>
-      <c r="S82" s="5" t="s">
-        <v>716</v>
+      <c r="S82" s="5">
+        <v>-2</v>
       </c>
       <c r="T82" s="6"/>
       <c r="Z82">
@@ -9818,11 +9818,11 @@
       </c>
       <c r="AA82">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB82">
-        <f t="shared" si="4"/>
-        <v>0.54320987654320985</v>
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
@@ -9856,8 +9856,8 @@
       <c r="Q83" t="s">
         <v>152</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>715</v>
+      <c r="S83" s="3">
+        <v>-2</v>
       </c>
       <c r="T83" s="1">
         <v>3</v>
@@ -9870,11 +9870,11 @@
       </c>
       <c r="AA83">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB83">
-        <f t="shared" si="4"/>
-        <v>0.53658536585365857</v>
+        <f t="shared" si="2"/>
+        <v>0.54878048780487809</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
@@ -9908,8 +9908,8 @@
       <c r="Q84" t="s">
         <v>155</v>
       </c>
-      <c r="S84" s="5" t="s">
-        <v>716</v>
+      <c r="S84" s="5">
+        <v>-2</v>
       </c>
       <c r="U84" t="s">
         <v>1767</v>
@@ -9919,11 +9919,11 @@
       </c>
       <c r="AA84">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB84">
-        <f t="shared" si="4"/>
-        <v>0.53012048192771088</v>
+        <f t="shared" si="2"/>
+        <v>0.54216867469879515</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
@@ -9957,19 +9957,19 @@
       <c r="Q85" t="s">
         <v>157</v>
       </c>
-      <c r="S85" s="5" t="s">
-        <v>716</v>
+      <c r="S85" s="5">
+        <v>-2</v>
       </c>
       <c r="Z85">
         <v>84</v>
       </c>
       <c r="AA85">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB85">
-        <f t="shared" si="4"/>
-        <v>0.52380952380952384</v>
+        <f t="shared" si="2"/>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
@@ -10003,8 +10003,8 @@
       <c r="Q86" t="s">
         <v>159</v>
       </c>
-      <c r="S86" s="5" t="s">
-        <v>716</v>
+      <c r="S86" s="5">
+        <v>-2</v>
       </c>
       <c r="U86" t="s">
         <v>1768</v>
@@ -10014,11 +10014,11 @@
       </c>
       <c r="AA86">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB86">
-        <f t="shared" si="4"/>
-        <v>0.51764705882352946</v>
+        <f t="shared" si="2"/>
+        <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
@@ -10053,7 +10053,7 @@
         <v>161</v>
       </c>
       <c r="S87" s="1">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="U87" t="s">
         <v>1769</v>
@@ -10066,7 +10066,7 @@
         <v>45</v>
       </c>
       <c r="AB87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.52325581395348841</v>
       </c>
     </row>
@@ -10101,8 +10101,8 @@
       <c r="Q88" t="s">
         <v>164</v>
       </c>
-      <c r="S88" s="3" t="s">
-        <v>715</v>
+      <c r="S88" s="3">
+        <v>-2</v>
       </c>
       <c r="U88" t="s">
         <v>1768</v>
@@ -10115,7 +10115,7 @@
         <v>45</v>
       </c>
       <c r="AB88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.51724137931034486</v>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
         <v>166</v>
       </c>
       <c r="S89" s="1">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="T89" s="7"/>
       <c r="Z89">
@@ -10159,11 +10159,11 @@
       </c>
       <c r="AA89">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB89">
-        <f t="shared" si="4"/>
-        <v>0.52272727272727271</v>
+        <f t="shared" si="2"/>
+        <v>0.51136363636363635</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
@@ -10197,19 +10197,19 @@
       <c r="Q90" t="s">
         <v>82</v>
       </c>
-      <c r="S90" s="5" t="s">
-        <v>716</v>
+      <c r="S90" s="5">
+        <v>-2</v>
       </c>
       <c r="Z90">
         <v>89</v>
       </c>
       <c r="AA90">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB90">
-        <f t="shared" si="4"/>
-        <v>0.5168539325842697</v>
+        <f t="shared" si="2"/>
+        <v>0.5056179775280899</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.3">
@@ -10243,19 +10243,19 @@
       <c r="Q91" t="s">
         <v>169</v>
       </c>
-      <c r="S91" s="5" t="s">
-        <v>716</v>
+      <c r="S91" s="5">
+        <v>-2</v>
       </c>
       <c r="Z91">
         <v>90</v>
       </c>
       <c r="AA91">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB91">
-        <f t="shared" si="4"/>
-        <v>0.51111111111111107</v>
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
@@ -10290,18 +10290,18 @@
         <v>171</v>
       </c>
       <c r="S92" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="Z92">
         <v>91</v>
       </c>
       <c r="AA92">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB92">
-        <f t="shared" si="4"/>
-        <v>0.51648351648351654</v>
+        <f t="shared" si="2"/>
+        <v>0.49450549450549453</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
@@ -10335,19 +10335,19 @@
       <c r="Q93" t="s">
         <v>706</v>
       </c>
-      <c r="S93" s="5" t="s">
-        <v>716</v>
+      <c r="S93" s="5">
+        <v>-2</v>
       </c>
       <c r="Z93">
         <v>92</v>
       </c>
       <c r="AA93">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB93">
-        <f t="shared" si="4"/>
-        <v>0.51086956521739135</v>
+        <f t="shared" si="2"/>
+        <v>0.4891304347826087</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
@@ -10382,7 +10382,7 @@
         <v>787</v>
       </c>
       <c r="S94" s="1">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="U94" t="s">
         <v>1770</v>
@@ -10392,11 +10392,11 @@
       </c>
       <c r="AA94">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB94">
-        <f t="shared" si="4"/>
-        <v>0.5161290322580645</v>
+        <f t="shared" si="2"/>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
@@ -10430,19 +10430,19 @@
       <c r="Q95" t="s">
         <v>173</v>
       </c>
-      <c r="S95" s="5" t="s">
-        <v>716</v>
+      <c r="S95" s="5">
+        <v>-2</v>
       </c>
       <c r="Z95">
         <v>94</v>
       </c>
       <c r="AA95">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB95">
-        <f t="shared" si="4"/>
-        <v>0.51063829787234039</v>
+        <f t="shared" si="2"/>
+        <v>0.47872340425531917</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
@@ -10476,8 +10476,8 @@
       <c r="Q96" t="s">
         <v>131</v>
       </c>
-      <c r="S96" s="5" t="s">
-        <v>716</v>
+      <c r="S96" s="5">
+        <v>-2</v>
       </c>
       <c r="U96" t="s">
         <v>1767</v>
@@ -10487,11 +10487,11 @@
       </c>
       <c r="AA96">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB96">
-        <f t="shared" si="4"/>
-        <v>0.50526315789473686</v>
+        <f t="shared" si="2"/>
+        <v>0.47368421052631576</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.3">
@@ -10525,19 +10525,19 @@
       <c r="Q97" t="s">
         <v>176</v>
       </c>
-      <c r="S97" s="5" t="s">
-        <v>716</v>
+      <c r="S97" s="5">
+        <v>-2</v>
       </c>
       <c r="Z97">
         <v>96</v>
       </c>
       <c r="AA97">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB97">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
@@ -10571,19 +10571,19 @@
       <c r="Q98" t="s">
         <v>73</v>
       </c>
-      <c r="S98" s="5" t="s">
-        <v>716</v>
+      <c r="S98" s="5">
+        <v>-2</v>
       </c>
       <c r="Z98">
         <v>97</v>
       </c>
       <c r="AA98">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB98">
-        <f t="shared" si="4"/>
-        <v>0.49484536082474229</v>
+        <f t="shared" si="2"/>
+        <v>0.46391752577319589</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.3">
@@ -10617,8 +10617,8 @@
       <c r="Q99" t="s">
         <v>181</v>
       </c>
-      <c r="S99" s="5" t="s">
-        <v>716</v>
+      <c r="S99" s="5">
+        <v>-2</v>
       </c>
       <c r="U99" t="s">
         <v>1768</v>
@@ -10628,11 +10628,11 @@
       </c>
       <c r="AA99">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AB99">
-        <f t="shared" si="4"/>
-        <v>0.48979591836734693</v>
+        <f t="shared" si="2"/>
+        <v>0.45918367346938777</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
@@ -10667,18 +10667,18 @@
         <v>183</v>
       </c>
       <c r="S100" s="1">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="Z100">
         <v>99</v>
       </c>
       <c r="AA100">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AB100">
-        <f t="shared" si="4"/>
-        <v>0.49494949494949497</v>
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">
@@ -10712,19 +10712,19 @@
       <c r="Q101" t="s">
         <v>186</v>
       </c>
-      <c r="S101" s="5" t="s">
-        <v>716</v>
+      <c r="S101" s="5">
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>100</v>
       </c>
       <c r="AA101">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AB101">
-        <f t="shared" si="4"/>
-        <v>0.49</v>
+        <f t="shared" si="2"/>
+        <v>0.45</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">
